--- a/docs/data/past.xlsx
+++ b/docs/data/past.xlsx
@@ -24,9 +24,6 @@
     <t>https://www.efspi.org/Documents/Events/Events%202020/Webinars/5th%20EFSPI%20RegStat%20Workshop%20program.PDF</t>
   </si>
   <si>
-    <t>http://https//www.efspi.org/Documents/Events/Events%202019/Reg%20Stats/EFSPI%20RegStat%20workshop%20Basel%201st%20announcement.PDF</t>
-  </si>
-  <si>
     <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/4th_efspi_workshop_on_regulatory_statistics.aspx</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Slidedecks</t>
+  </si>
+  <si>
+    <t>data/4th EFSPI RegStat Basel program.pdf</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,13 +402,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -416,10 +416,10 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -427,10 +427,10 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -438,10 +438,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -449,10 +449,10 @@
         <v>2019</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/past.xlsx
+++ b/docs/data/past.xlsx
@@ -19,45 +19,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/4th_efspi_workshop_on_regulatory_statistics.aspx</t>
+  </si>
+  <si>
+    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/5th_efspi_workshop_on_regulatory_statistics.aspx</t>
+  </si>
+  <si>
+    <t>https://www.efspi.org/documents/events/events%202018/3rd%20EFSPI%20RegStat%20Basel%20program.PDF</t>
+  </si>
+  <si>
+    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/3rd_efspi_workshop_on_regulatory_statistics.aspx</t>
+  </si>
+  <si>
+    <t>https://www.efspi.org/documents/Events/EFSPI%20flyer%20Statistical%20Workshop%20program%202017%20V1.1%20September.PDF</t>
+  </si>
+  <si>
+    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/2nd_EFSPI_Workshop_on_Regulatory_Statistics.aspx</t>
+  </si>
+  <si>
+    <t>https://www.efspi.org/documents/events/EFSPI%20flyer%20Statistical%20Workshop%202016%20V6Aug5.PDF</t>
+  </si>
+  <si>
+    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/1st_EFSPI_Workshop_on_Regulatory_Statistics.aspx</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Slidedecks</t>
+  </si>
+  <si>
+    <t>data/4th EFSPI RegStat Basel program.pdf</t>
+  </si>
+  <si>
+    <t>https://www.efspi.org/Documents/Events/Events%202021/6th%20EFSPI%20RegStat%20Workshop%20program.pdf</t>
+  </si>
   <si>
     <t>https://www.efspi.org/Documents/Events/Events%202020/Webinars/5th%20EFSPI%20RegStat%20Workshop%20program.PDF</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/4th_efspi_workshop_on_regulatory_statistics.aspx</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/5th_efspi_workshop_on_regulatory_statistics.aspx</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/documents/events/events%202018/3rd%20EFSPI%20RegStat%20Basel%20program.PDF</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/3rd_efspi_workshop_on_regulatory_statistics.aspx</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/documents/Events/EFSPI%20flyer%20Statistical%20Workshop%20program%202017%20V1.1%20September.PDF</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/2nd_EFSPI_Workshop_on_Regulatory_Statistics.aspx</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/documents/events/EFSPI%20flyer%20Statistical%20Workshop%202016%20V6Aug5.PDF</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/1st_EFSPI_Workshop_on_Regulatory_Statistics.aspx</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>Slidedecks</t>
-  </si>
-  <si>
-    <t>data/4th EFSPI RegStat Basel program.pdf</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -402,13 +405,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -416,10 +419,10 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -427,10 +430,10 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -438,10 +441,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -449,10 +452,10 @@
         <v>2019</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,10 +463,18 @@
         <v>2020</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/past.xlsx
+++ b/docs/data/past.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/4th_efspi_workshop_on_regulatory_statistics.aspx</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>https://www.efspi.org/Documents/Events/Events%202020/Webinars/5th%20EFSPI%20RegStat%20Workshop%20program.PDF</t>
+  </si>
+  <si>
+    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/6th_efspi_workshop_on_regulatory_statistics.aspx</t>
   </si>
 </sst>
 </file>
@@ -391,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,6 +479,9 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
